--- a/tests/single_layer.xlsx
+++ b/tests/single_layer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/general/Documents/Developer/Python/PileAnalyser/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1240BED2-2272-1D45-9FAD-94EF1677D697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D307D-751A-5947-8F70-BD5C8074B82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27680" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="8">
   <si>
     <t>N値</t>
   </si>
@@ -359,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -426,11 +426,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F24" si="0">IF(C2="S",80,IF(C2="C",60,""))</f>
+        <f t="shared" ref="F2" si="0">IF(C2="S",80,IF(C2="C",60,""))</f>
         <v>80</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G24" si="1">700*B2</f>
+        <f t="shared" ref="G2:G23" si="1">700*B2</f>
         <v>2100</v>
       </c>
     </row>
@@ -1210,474 +1210,1791 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="13">
-      <c r="A34" s="6"/>
-      <c r="B34" s="13"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="6">
+        <v>33.15</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" ref="F34:F57" si="4">IF(C34="S",80,IF(C34="C",60,""))</f>
+        <v>80</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" ref="G34:G57" si="5">700*B34</f>
+        <v>2100</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="13">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="6">
+        <v>34.15</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="13">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="6">
+        <v>35.15</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="13">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="A37" s="6">
+        <v>36.15</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="13">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="A38" s="6">
+        <v>37.15</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="13">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="A39" s="6">
+        <v>38.15</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="13">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="6">
+        <v>39.15</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="13">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="6">
+        <v>40.15</v>
+      </c>
+      <c r="B41" s="7">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="13">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="6">
+        <v>41.15</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="13">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="6">
+        <v>42.15</v>
+      </c>
+      <c r="B43" s="7">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="13">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="6">
+        <v>43.15</v>
+      </c>
+      <c r="B44" s="7">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="13">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="6">
+        <v>44.15</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G45" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="13">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="6">
+        <v>45.15</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="13">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="A47" s="6">
+        <v>46.15</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="13">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" ht="13">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" ht="13">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" ht="13">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" ht="13">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" ht="13">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" ht="13">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="1:5" ht="13">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:5" ht="13">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5" ht="13">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5" ht="13">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" ht="13">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" ht="13">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" ht="13">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" ht="13">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" ht="13">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" ht="13">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="1:5" ht="13">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" ht="13">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:5" ht="13">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5" ht="13">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" ht="13">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" ht="13">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:5" ht="13">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="1:5" ht="13">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:5" ht="13">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="1:5" ht="13">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="1:5" ht="13">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="1:5" ht="13">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" ht="13">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:5" ht="13">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="1:5" ht="13">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" spans="1:5" ht="13">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="1:5" ht="13">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="1:5" ht="13">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" spans="1:5" ht="13">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="1:5" ht="13">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="1:5" ht="13">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="1:5" ht="13">
-      <c r="A86" s="12"/>
-      <c r="B86" s="13"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="1:5" ht="13">
-      <c r="A87" s="12"/>
-      <c r="B87" s="13"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:5" ht="13">
-      <c r="A88" s="12"/>
-      <c r="B88" s="13"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="1:5" ht="13">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="1:5" ht="13">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="1:5" ht="13">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="1:5" ht="13">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="1:5" ht="13">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="1:5" ht="13">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" spans="1:5" ht="13">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="1:5" ht="13">
-      <c r="A96" s="12"/>
-      <c r="B96" s="13"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="1:5" ht="13">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="1:5" ht="13">
-      <c r="A98" s="12"/>
-      <c r="B98" s="13"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="1:5" ht="13">
-      <c r="A99" s="12"/>
-      <c r="B99" s="13"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="1:5" ht="13">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="1:5" ht="13">
-      <c r="A101" s="12"/>
-      <c r="B101" s="13"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:5" ht="13">
-      <c r="A102" s="12"/>
-      <c r="B102" s="13"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="1:5" ht="13">
-      <c r="A103" s="12"/>
-      <c r="B103" s="13"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="1:5" ht="13">
-      <c r="A104" s="12"/>
-      <c r="B104" s="13"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" spans="1:5" ht="13">
+      <c r="A48" s="6">
+        <v>47.15</v>
+      </c>
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13">
+      <c r="A49" s="6">
+        <v>48.15</v>
+      </c>
+      <c r="B49" s="7">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13">
+      <c r="A50" s="6">
+        <v>49.15</v>
+      </c>
+      <c r="B50" s="7">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13">
+      <c r="A51" s="6">
+        <v>50.15</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13">
+      <c r="A52" s="6">
+        <v>51.15</v>
+      </c>
+      <c r="B52" s="7">
+        <v>3</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13">
+      <c r="A53" s="6">
+        <v>52.15</v>
+      </c>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13">
+      <c r="A54" s="6">
+        <v>53.15</v>
+      </c>
+      <c r="B54" s="7">
+        <v>3</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13">
+      <c r="A55" s="6">
+        <v>54.15</v>
+      </c>
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13">
+      <c r="A56" s="6">
+        <v>55.15</v>
+      </c>
+      <c r="B56" s="7">
+        <v>3</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13">
+      <c r="A57" s="6">
+        <v>56.15</v>
+      </c>
+      <c r="B57" s="7">
+        <v>3</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13">
+      <c r="A58" s="6">
+        <v>57.15</v>
+      </c>
+      <c r="B58" s="7">
+        <v>3</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" ref="F58:F101" si="6">IF(C58="S",80,IF(C58="C",60,""))</f>
+        <v>80</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" ref="G58:G101" si="7">700*B58</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13">
+      <c r="A59" s="6">
+        <v>58.15</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13">
+      <c r="A60" s="6">
+        <v>59.15</v>
+      </c>
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13">
+      <c r="A61" s="6">
+        <v>60.15</v>
+      </c>
+      <c r="B61" s="7">
+        <v>3</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="9">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13">
+      <c r="A62" s="6">
+        <v>61.15</v>
+      </c>
+      <c r="B62" s="7">
+        <v>3</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13">
+      <c r="A63" s="6">
+        <v>62.15</v>
+      </c>
+      <c r="B63" s="7">
+        <v>3</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13">
+      <c r="A64" s="6">
+        <v>63.15</v>
+      </c>
+      <c r="B64" s="7">
+        <v>3</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="9">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9">
+        <v>1</v>
+      </c>
+      <c r="F64" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13">
+      <c r="A65" s="6">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1</v>
+      </c>
+      <c r="F65" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13">
+      <c r="A66" s="6">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="B66" s="7">
+        <v>3</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G66" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13">
+      <c r="A67" s="6">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="B67" s="7">
+        <v>3</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13">
+      <c r="A68" s="6">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="B68" s="7">
+        <v>3</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="13">
+      <c r="A69" s="6">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="B69" s="7">
+        <v>3</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G69" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="13">
+      <c r="A70" s="6">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="B70" s="7">
+        <v>3</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="9">
+        <v>1</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G70" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="13">
+      <c r="A71" s="6">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="B71" s="7">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13">
+      <c r="A72" s="6">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="B72" s="7">
+        <v>3</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1</v>
+      </c>
+      <c r="F72" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G72" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13">
+      <c r="A73" s="6">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="B73" s="7">
+        <v>3</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1</v>
+      </c>
+      <c r="F73" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G73" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13">
+      <c r="A74" s="6">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="B74" s="7">
+        <v>3</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="9">
+        <v>1</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="13">
+      <c r="A75" s="6">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="B75" s="7">
+        <v>3</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="13">
+      <c r="A76" s="6">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="B76" s="7">
+        <v>3</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13">
+      <c r="A77" s="6">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="B77" s="7">
+        <v>3</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G77" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="13">
+      <c r="A78" s="6">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="B78" s="7">
+        <v>3</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9">
+        <v>1</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G78" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="13">
+      <c r="A79" s="6">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="B79" s="7">
+        <v>3</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="9">
+        <v>1</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1</v>
+      </c>
+      <c r="F79" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G79" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="13">
+      <c r="A80" s="6">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="B80" s="7">
+        <v>3</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="9">
+        <v>1</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1</v>
+      </c>
+      <c r="F80" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G80" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="13">
+      <c r="A81" s="6">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="B81" s="7">
+        <v>3</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="9">
+        <v>1</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1</v>
+      </c>
+      <c r="F81" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G81" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="13">
+      <c r="A82" s="6">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="B82" s="7">
+        <v>3</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="9">
+        <v>1</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1</v>
+      </c>
+      <c r="F82" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G82" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="13">
+      <c r="A83" s="6">
+        <v>82.15</v>
+      </c>
+      <c r="B83" s="7">
+        <v>3</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="9">
+        <v>1</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G83" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="13">
+      <c r="A84" s="6">
+        <v>83.15</v>
+      </c>
+      <c r="B84" s="7">
+        <v>3</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="9">
+        <v>1</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1</v>
+      </c>
+      <c r="F84" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G84" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="13">
+      <c r="A85" s="6">
+        <v>84.15</v>
+      </c>
+      <c r="B85" s="7">
+        <v>3</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="9">
+        <v>1</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1</v>
+      </c>
+      <c r="F85" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G85" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="13">
+      <c r="A86" s="6">
+        <v>85.15</v>
+      </c>
+      <c r="B86" s="7">
+        <v>3</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="9">
+        <v>1</v>
+      </c>
+      <c r="E86" s="9">
+        <v>1</v>
+      </c>
+      <c r="F86" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G86" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="13">
+      <c r="A87" s="6">
+        <v>86.15</v>
+      </c>
+      <c r="B87" s="7">
+        <v>3</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="9">
+        <v>1</v>
+      </c>
+      <c r="E87" s="9">
+        <v>1</v>
+      </c>
+      <c r="F87" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G87" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="13">
+      <c r="A88" s="6">
+        <v>87.15</v>
+      </c>
+      <c r="B88" s="7">
+        <v>3</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="9">
+        <v>1</v>
+      </c>
+      <c r="E88" s="9">
+        <v>1</v>
+      </c>
+      <c r="F88" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G88" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="13">
+      <c r="A89" s="6">
+        <v>88.15</v>
+      </c>
+      <c r="B89" s="7">
+        <v>3</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="9">
+        <v>1</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1</v>
+      </c>
+      <c r="F89" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G89" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="13">
+      <c r="A90" s="6">
+        <v>89.15</v>
+      </c>
+      <c r="B90" s="7">
+        <v>3</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="9">
+        <v>1</v>
+      </c>
+      <c r="E90" s="9">
+        <v>1</v>
+      </c>
+      <c r="F90" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G90" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="13">
+      <c r="A91" s="6">
+        <v>90.15</v>
+      </c>
+      <c r="B91" s="7">
+        <v>3</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="9">
+        <v>1</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1</v>
+      </c>
+      <c r="F91" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G91" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="13">
+      <c r="A92" s="6">
+        <v>91.15</v>
+      </c>
+      <c r="B92" s="7">
+        <v>3</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="9">
+        <v>1</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1</v>
+      </c>
+      <c r="F92" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G92" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="13">
+      <c r="A93" s="6">
+        <v>92.15</v>
+      </c>
+      <c r="B93" s="7">
+        <v>3</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="9">
+        <v>1</v>
+      </c>
+      <c r="E93" s="9">
+        <v>1</v>
+      </c>
+      <c r="F93" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G93" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13">
+      <c r="A94" s="6">
+        <v>93.15</v>
+      </c>
+      <c r="B94" s="7">
+        <v>3</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="9">
+        <v>1</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1</v>
+      </c>
+      <c r="F94" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G94" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="13">
+      <c r="A95" s="6">
+        <v>94.15</v>
+      </c>
+      <c r="B95" s="7">
+        <v>3</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="9">
+        <v>1</v>
+      </c>
+      <c r="E95" s="9">
+        <v>1</v>
+      </c>
+      <c r="F95" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G95" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="13">
+      <c r="A96" s="6">
+        <v>95.15</v>
+      </c>
+      <c r="B96" s="7">
+        <v>3</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
+      <c r="E96" s="9">
+        <v>1</v>
+      </c>
+      <c r="F96" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G96" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="13">
+      <c r="A97" s="6">
+        <v>96.15</v>
+      </c>
+      <c r="B97" s="7">
+        <v>3</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="9">
+        <v>1</v>
+      </c>
+      <c r="E97" s="9">
+        <v>1</v>
+      </c>
+      <c r="F97" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G97" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="13">
+      <c r="A98" s="6">
+        <v>97.15</v>
+      </c>
+      <c r="B98" s="7">
+        <v>3</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="9">
+        <v>1</v>
+      </c>
+      <c r="E98" s="9">
+        <v>1</v>
+      </c>
+      <c r="F98" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G98" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="13">
+      <c r="A99" s="6">
+        <v>98.15</v>
+      </c>
+      <c r="B99" s="7">
+        <v>3</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1</v>
+      </c>
+      <c r="F99" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G99" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="13">
+      <c r="A100" s="6">
+        <v>99.15</v>
+      </c>
+      <c r="B100" s="7">
+        <v>3</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="9">
+        <v>1</v>
+      </c>
+      <c r="E100" s="9">
+        <v>1</v>
+      </c>
+      <c r="F100" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G100" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="13">
+      <c r="A101" s="6">
+        <v>100.15</v>
+      </c>
+      <c r="B101" s="7">
+        <v>3</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="9">
+        <v>1</v>
+      </c>
+      <c r="E101" s="9">
+        <v>1</v>
+      </c>
+      <c r="F101" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G101" s="10">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="13">
+      <c r="A102" s="6">
+        <v>101.15</v>
+      </c>
+      <c r="B102" s="7">
+        <v>3</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="9">
+        <v>1</v>
+      </c>
+      <c r="E102" s="9">
+        <v>1</v>
+      </c>
+      <c r="F102" s="10">
+        <f t="shared" ref="F102" si="8">IF(C102="S",80,IF(C102="C",60,""))</f>
+        <v>80</v>
+      </c>
+      <c r="G102" s="10">
+        <f t="shared" ref="G102" si="9">700*B102</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="13">
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:7" ht="13">
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:7" ht="13">
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="1:5" ht="13">
+    <row r="106" spans="1:7" ht="13">
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="1:5" ht="13">
+    <row r="107" spans="1:7" ht="13">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="1:5" ht="13">
+    <row r="108" spans="1:7" ht="13">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="1:5" ht="13">
+    <row r="109" spans="1:7" ht="13">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="1:5" ht="13">
+    <row r="110" spans="1:7" ht="13">
       <c r="A110" s="12"/>
       <c r="B110" s="13"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
     </row>
-    <row r="111" spans="1:5" ht="13">
+    <row r="111" spans="1:7" ht="13">
       <c r="A111" s="12"/>
       <c r="B111" s="13"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
     </row>
-    <row r="112" spans="1:5" ht="13">
+    <row r="112" spans="1:7" ht="13">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="D112" s="11"/>
